--- a/excel_templates/仪表表.xlsx
+++ b/excel_templates/仪表表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,90 +466,145 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>JIRA地址</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>借用人</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>手机号</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>借用时间</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>借用地点</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>借用原因</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>录入者</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>预计归还日期</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>是否删除</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>丢失时间</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>损坏原因</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>损坏时间</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>上一个借用人</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>软件版本</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>芯片型号</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>项目属性</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>连接方式</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>系统版本</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>系统平台</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>产品名称</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>屏幕方向</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>车机分辨率</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>寄出时间</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>寄出备注</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>寄出人</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>寄出前借用人</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>寄出前借用时间</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>寄出前预计归还</t>
         </is>
@@ -558,174 +613,176 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qwqe1</t>
+          <t>qwqe2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>仪表-001</t>
+          <t>仪表-002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>仪表-001</t>
+          <t>仪表-002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S-15</t>
+          <t>S-16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>丢失</t>
+          <t>在库</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2026-02-10 16:54</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>测试 - 用于功能测试</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>用户自助</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2026-02-12 16:56:10</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2026-02-10 16:56</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>国内前装</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>无线互联</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Android13</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>亿连应用空间</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qwqe2</t>
+          <t>qwqe3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>仪表-002</t>
+          <t>仪表-003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>仪表-002</t>
+          <t>仪表-003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S-16</t>
+          <t>S-17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>借出</t>
+          <t>在库</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>lan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13800138001.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2026-02-10 16:56</t>
-        </is>
-      </c>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>测试 - 用于功能测试</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>用户自助</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2026-02-11 16:56:50</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qwqe3</t>
+          <t>qwqe4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>仪表-003</t>
+          <t>仪表-004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>仪表-003</t>
+          <t>仪表-004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S-17</t>
+          <t>S-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -734,44 +791,48 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>lan</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>13800138001.0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2026-02-10 19:47</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>测试 - 用于功能测试</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>用户自助</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2026-02-11 19:47:26</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:47:53</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -780,26 +841,37 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>qwqe4</t>
+          <t>qwqe5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>仪表-004</t>
+          <t>仪表-005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>仪表-004</t>
+          <t>仪表-005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S-18</t>
+          <t>S-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -808,44 +880,36 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>lan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>13800138001.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2026-02-10 19:47</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>测试 - 用于功能测试</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>用户自助</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2026-02-11 19:47:53</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+          <t>2026-02-11 13:52</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:52:38</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -854,26 +918,37 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qwqe5</t>
+          <t>qwqe7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>仪表-005</t>
+          <t>仪表-007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>仪表-005</t>
+          <t>仪表-007</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S-19</t>
+          <t>S-21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -883,19 +958,23 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -904,26 +983,37 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qwqe6</t>
+          <t>qwqe8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>仪表-006</t>
+          <t>仪表-008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>仪表-006</t>
+          <t>仪表-008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S-20</t>
+          <t>S-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -933,19 +1023,23 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -954,26 +1048,37 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>qwqe7</t>
+          <t>qwqe9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>仪表-007</t>
+          <t>仪表-009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>仪表-007</t>
+          <t>仪表-009</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S-21</t>
+          <t>S-23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,19 +1088,23 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1004,26 +1113,37 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>qwqe8</t>
+          <t>qwqe10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>仪表-008</t>
+          <t>仪表-010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>仪表-008</t>
+          <t>仪表-010</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S-22</t>
+          <t>S-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1033,19 +1153,23 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1054,26 +1178,37 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>qwqe9</t>
+          <t>qwqe11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>仪表-009</t>
+          <t>仪表-011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>仪表-009</t>
+          <t>仪表-011</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S-23</t>
+          <t>S-25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1083,19 +1218,23 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1104,26 +1243,37 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qwqe10</t>
+          <t>qwqe12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>仪表-010</t>
+          <t>仪表-012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>仪表-010</t>
+          <t>仪表-012</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S-24</t>
+          <t>S-26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1133,19 +1283,23 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1154,26 +1308,37 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qwqe11</t>
+          <t>qwqe13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>仪表-011</t>
+          <t>仪表-013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>仪表-011</t>
+          <t>仪表-013</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S-25</t>
+          <t>S-27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1183,19 +1348,23 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1204,26 +1373,37 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qwqe12</t>
+          <t>qwqe14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>仪表-012</t>
+          <t>仪表-014</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>仪表-012</t>
+          <t>仪表-014</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>S-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1233,19 +1413,23 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1254,26 +1438,37 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qwqe13</t>
+          <t>qwqe15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>仪表-013</t>
+          <t>仪表-015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>仪表-013</t>
+          <t>仪表-015</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S-27</t>
+          <t>S-29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1283,19 +1478,23 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1304,26 +1503,37 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qwqe14</t>
+          <t>qwqe16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>仪表-014</t>
+          <t>仪表-016</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>仪表-014</t>
+          <t>仪表-016</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S-28</t>
+          <t>S-30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1333,19 +1543,23 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1354,26 +1568,37 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qwqe15</t>
+          <t>qwqe17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>仪表-015</t>
+          <t>仪表-017</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>仪表-015</t>
+          <t>仪表-017</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S-29</t>
+          <t>S-31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1383,19 +1608,23 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1404,26 +1633,37 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>qwqe16</t>
+          <t>qwqe18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>仪表-016</t>
+          <t>仪表-018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>仪表-016</t>
+          <t>仪表-018</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S-30</t>
+          <t>S-32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1433,19 +1673,23 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1454,26 +1698,37 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>qwqe17</t>
+          <t>qwqe19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>仪表-017</t>
+          <t>仪表-019</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>仪表-017</t>
+          <t>仪表-019</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S-31</t>
+          <t>S-33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1483,19 +1738,23 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1504,26 +1763,37 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>qwqe18</t>
+          <t>qwqe20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>仪表-018</t>
+          <t>仪表-020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>仪表-018</t>
+          <t>仪表-020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S-32</t>
+          <t>S-34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1533,19 +1803,23 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1554,26 +1828,37 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>qwqe19</t>
+          <t>qwqe21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>仪表-019</t>
+          <t>仪表-021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>仪表-019</t>
+          <t>仪表-021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S-33</t>
+          <t>S-35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1583,19 +1868,23 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -1604,26 +1893,37 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>qwqe20</t>
+          <t>qwqe22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>仪表-020</t>
+          <t>仪表-022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>仪表-020</t>
+          <t>仪表-022</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S-34</t>
+          <t>S-36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1633,19 +1933,23 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1654,26 +1958,37 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>qwqe21</t>
+          <t>qwqe23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>仪表-021</t>
+          <t>仪表-023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>仪表-021</t>
+          <t>仪表-023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S-35</t>
+          <t>S-37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1683,19 +1998,23 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -1704,26 +2023,37 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>qwqe22</t>
+          <t>qwqe24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>仪表-022</t>
+          <t>仪表-024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>仪表-022</t>
+          <t>仪表-024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S-36</t>
+          <t>S-38</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1733,19 +2063,23 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -1754,26 +2088,37 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>qwqe23</t>
+          <t>qwqe25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>仪表-023</t>
+          <t>仪表-025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>仪表-023</t>
+          <t>仪表-025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>S-37</t>
+          <t>S-39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1783,19 +2128,23 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -1804,26 +2153,37 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>qwqe24</t>
+          <t>qwqe26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>仪表-024</t>
+          <t>仪表-026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>仪表-024</t>
+          <t>仪表-026</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S-38</t>
+          <t>S-40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1833,19 +2193,23 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -1854,26 +2218,37 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>qwqe25</t>
+          <t>qwqe27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>仪表-025</t>
+          <t>仪表-027</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>仪表-025</t>
+          <t>仪表-027</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S-39</t>
+          <t>S-41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1883,19 +2258,23 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -1904,26 +2283,37 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>qwqe26</t>
+          <t>qwqe28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>仪表-026</t>
+          <t>仪表-028</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>仪表-026</t>
+          <t>仪表-028</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>S-40</t>
+          <t>S-42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1933,19 +2323,23 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -1954,26 +2348,37 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>qwqe27</t>
+          <t>qwqe29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>仪表-027</t>
+          <t>仪表-029</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>仪表-027</t>
+          <t>仪表-029</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S-41</t>
+          <t>S-43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1983,19 +2388,23 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:58:19</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2004,106 +2413,17 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>qwqe28</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>仪表-028</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>仪表-028</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>S-42</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>qwqe29</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>仪表-029</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>仪表-029</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>S-43</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
